--- a/Assets/Tables/Dialogue.xlsx
+++ b/Assets/Tables/Dialogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\developer\Unity\GitHub Projects\UAL_CriticalPlay_Autobiography\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6733D65E-EC9C-478F-86CC-48B72EFA688E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AC26C6-EE88-4350-9508-ED500CF315FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="2720" windowWidth="19200" windowHeight="11350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5270" yWindow="3190" windowWidth="19200" windowHeight="11350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,34 @@
   </si>
   <si>
     <t>Sounds/NewAILines/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't just think about playing all day long, we're here in London to study.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's been a whole week of studying, let's play together for a while.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No, next week is deadline, so let's finish the last bit of work.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/10</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/11</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/12</t>
+  </si>
+  <si>
+    <t>Sounds/NewAILines/13</t>
+  </si>
+  <si>
+    <t>Come on, we should balance work and play.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -678,13 +706,105 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
